--- a/USA/state/data/dic/1980_2016/DIC comparison pw and nonpw all ages model 1d 1980-2016.xlsx
+++ b/USA/state/data/dic/1980_2016/DIC comparison pw and nonpw all ages model 1d 1980-2016.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmiparks/git/mortality/USA/state/data/dic/1980_2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A6FEA2-6F52-3F4C-B3B8-0441AE31895D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5E152F-3624-8F4B-9E55-70A6A45BE45F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C5D6F9F6-4735-9542-B608-875F16A3F9AD}"/>
+    <workbookView xWindow="17140" yWindow="460" windowWidth="11660" windowHeight="17540" xr2:uid="{C5D6F9F6-4735-9542-B608-875F16A3F9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -422,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C297E7-6797-2342-9E80-1C39CEF8FE4F}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,7 +491,7 @@
         <v>77421.31</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F41" si="0">IF(D3&lt;E3,"non-pw","pw")</f>
+        <f t="shared" ref="F3:F43" si="0">IF(D3&lt;E3,"non-pw","pw")</f>
         <v>pw</v>
       </c>
     </row>
@@ -1302,6 +1303,16 @@
       <c r="C42">
         <v>0</v>
       </c>
+      <c r="D42">
+        <v>40074.089999999997</v>
+      </c>
+      <c r="E42">
+        <v>40123.26</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -1313,6 +1324,16 @@
       <c r="C43">
         <v>5</v>
       </c>
+      <c r="D43">
+        <v>50570.67</v>
+      </c>
+      <c r="E43">
+        <v>50611.64</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -1324,6 +1345,9 @@
       <c r="C44">
         <v>15</v>
       </c>
+      <c r="E44">
+        <v>61198.97</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -1335,6 +1359,9 @@
       <c r="C45">
         <v>25</v>
       </c>
+      <c r="E45">
+        <v>74108.05</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -1346,6 +1373,9 @@
       <c r="C46">
         <v>35</v>
       </c>
+      <c r="E46">
+        <v>89601.8</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -1357,6 +1387,9 @@
       <c r="C47">
         <v>45</v>
       </c>
+      <c r="E47">
+        <v>105715.05</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -1368,8 +1401,11 @@
       <c r="C48">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>116644.74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1379,8 +1415,11 @@
       <c r="C49">
         <v>65</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>122604.31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1390,8 +1429,11 @@
       <c r="C50">
         <v>75</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>121173.85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1401,8 +1443,11 @@
       <c r="C51">
         <v>85</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>109829.04</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1412,8 +1457,18 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>37569.08</v>
+      </c>
+      <c r="E52">
+        <v>37620.720000000001</v>
+      </c>
+      <c r="F52" t="str">
+        <f>IF(D52&lt;E52,"non-pw","pw")</f>
+        <v>non-pw</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1423,8 +1478,18 @@
       <c r="C53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>46336.72</v>
+      </c>
+      <c r="E53">
+        <v>46376.97</v>
+      </c>
+      <c r="F53" t="str">
+        <f>IF(D53&lt;E53,"non-pw","pw")</f>
+        <v>non-pw</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1434,8 +1499,11 @@
       <c r="C54">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>54162.94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1445,8 +1513,11 @@
       <c r="C55">
         <v>25</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>73984.929999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1456,8 +1527,11 @@
       <c r="C56">
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>92509.64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1467,8 +1541,11 @@
       <c r="C57">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>105923.26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1478,8 +1555,11 @@
       <c r="C58">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>114092.35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -1489,8 +1569,11 @@
       <c r="C59">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>118578.54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1500,8 +1583,11 @@
       <c r="C60">
         <v>75</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>119371.32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1511,8 +1597,11 @@
       <c r="C61">
         <v>85</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>113089.86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -1522,8 +1611,18 @@
       <c r="C62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>103212.09</v>
+      </c>
+      <c r="E62">
+        <v>103211.51</v>
+      </c>
+      <c r="F62" t="str">
+        <f>IF(D62&lt;E62,"non-pw","pw")</f>
+        <v>pw</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1533,8 +1632,18 @@
       <c r="C63">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>59794.18</v>
+      </c>
+      <c r="E63">
+        <v>59823.5</v>
+      </c>
+      <c r="F63" t="str">
+        <f>IF(D63&lt;E63,"non-pw","pw")</f>
+        <v>non-pw</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1544,8 +1653,11 @@
       <c r="C64">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>79600.39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1555,8 +1667,11 @@
       <c r="C65">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>94951.73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1566,8 +1681,11 @@
       <c r="C66">
         <v>35</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>103783.64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1577,8 +1695,11 @@
       <c r="C67">
         <v>45</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>108590.33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1588,8 +1709,11 @@
       <c r="C68">
         <v>55</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>110844.55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1599,8 +1723,11 @@
       <c r="C69">
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>114653.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -1610,8 +1737,11 @@
       <c r="C70">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>119555.38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1621,8 +1751,11 @@
       <c r="C71">
         <v>85</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>115631.18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -1632,8 +1765,18 @@
       <c r="C72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>99805.43</v>
+      </c>
+      <c r="E72">
+        <v>99812.33</v>
+      </c>
+      <c r="F72" t="str">
+        <f>IF(D72&lt;E72,"non-pw","pw")</f>
+        <v>non-pw</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -1643,8 +1786,18 @@
       <c r="C73">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>56041.63</v>
+      </c>
+      <c r="E73">
+        <v>56081.27</v>
+      </c>
+      <c r="F73" t="str">
+        <f>IF(D73&lt;E73,"non-pw","pw")</f>
+        <v>non-pw</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -1654,8 +1807,11 @@
       <c r="C74">
         <v>15</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>71105.27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -1665,8 +1821,11 @@
       <c r="C75">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>85273.279999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -1676,8 +1835,11 @@
       <c r="C76">
         <v>35</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>93758.74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -1687,8 +1849,11 @@
       <c r="C77">
         <v>45</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>99587.36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -1698,8 +1863,11 @@
       <c r="C78">
         <v>55</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>104877.87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -1709,8 +1877,11 @@
       <c r="C79">
         <v>65</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <v>113193.04</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -1720,8 +1891,11 @@
       <c r="C80">
         <v>75</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <v>122039.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -1730,6 +1904,9 @@
       </c>
       <c r="C81">
         <v>85</v>
+      </c>
+      <c r="E81">
+        <v>128524.73</v>
       </c>
     </row>
   </sheetData>

--- a/USA/state/data/dic/1980_2016/DIC comparison pw and nonpw all ages model 1d 1980-2016.xlsx
+++ b/USA/state/data/dic/1980_2016/DIC comparison pw and nonpw all ages model 1d 1980-2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmiparks/git/mortality/USA/state/data/dic/1980_2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5E152F-3624-8F4B-9E55-70A6A45BE45F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60496D0-9FB2-014A-BBD7-5BACFCE36E8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17140" yWindow="460" windowWidth="11660" windowHeight="17540" xr2:uid="{C5D6F9F6-4735-9542-B608-875F16A3F9AD}"/>
+    <workbookView xWindow="14260" yWindow="-27980" windowWidth="25260" windowHeight="20140" xr2:uid="{C5D6F9F6-4735-9542-B608-875F16A3F9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C297E7-6797-2342-9E80-1C39CEF8FE4F}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,7 +470,7 @@
       <c r="E2">
         <v>75489.990000000005</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="2" t="str">
         <f>IF(D2&lt;E2,"non-pw","pw")</f>
         <v>pw</v>
       </c>
@@ -490,8 +491,8 @@
       <c r="E3">
         <v>77421.31</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F43" si="0">IF(D3&lt;E3,"non-pw","pw")</f>
+      <c r="F3" s="2" t="str">
+        <f t="shared" ref="F3:F51" si="0">IF(D3&lt;E3,"non-pw","pw")</f>
         <v>pw</v>
       </c>
     </row>
@@ -511,7 +512,7 @@
       <c r="E4">
         <v>108545.12</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>pw</v>
       </c>
@@ -1345,8 +1346,15 @@
       <c r="C44">
         <v>15</v>
       </c>
+      <c r="D44">
+        <v>61167.15</v>
+      </c>
       <c r="E44">
         <v>61198.97</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1359,8 +1367,15 @@
       <c r="C45">
         <v>25</v>
       </c>
+      <c r="D45">
+        <v>74089.440000000002</v>
+      </c>
       <c r="E45">
         <v>74108.05</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1373,8 +1388,15 @@
       <c r="C46">
         <v>35</v>
       </c>
+      <c r="D46">
+        <v>89597.57</v>
+      </c>
       <c r="E46">
         <v>89601.8</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1387,8 +1409,15 @@
       <c r="C47">
         <v>45</v>
       </c>
+      <c r="D47">
+        <v>105711.28</v>
+      </c>
       <c r="E47">
         <v>105715.05</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1401,22 +1430,36 @@
       <c r="C48">
         <v>55</v>
       </c>
+      <c r="D48">
+        <v>116639.36</v>
+      </c>
       <c r="E48">
         <v>116644.74</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
         <v>65</v>
       </c>
-      <c r="E49">
+      <c r="D49" s="2">
+        <v>122609.21</v>
+      </c>
+      <c r="E49" s="2">
         <v>122604.31</v>
+      </c>
+      <c r="F49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>pw</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1429,8 +1472,15 @@
       <c r="C50">
         <v>75</v>
       </c>
+      <c r="D50">
+        <v>121169.65</v>
+      </c>
       <c r="E50">
         <v>121173.85</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1443,8 +1493,15 @@
       <c r="C51">
         <v>85</v>
       </c>
+      <c r="D51">
+        <v>109826.56</v>
+      </c>
       <c r="E51">
         <v>109829.04</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1499,8 +1556,15 @@
       <c r="C54">
         <v>15</v>
       </c>
+      <c r="D54">
+        <v>54121.55</v>
+      </c>
       <c r="E54">
         <v>54162.94</v>
+      </c>
+      <c r="F54" t="str">
+        <f>IF(D54&lt;E54,"non-pw","pw")</f>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1513,8 +1577,15 @@
       <c r="C55">
         <v>25</v>
       </c>
+      <c r="D55">
+        <v>73964.990000000005</v>
+      </c>
       <c r="E55">
         <v>73984.929999999993</v>
+      </c>
+      <c r="F55" s="2" t="str">
+        <f t="shared" ref="F55:F61" si="1">IF(D55&lt;E55,"non-pw","pw")</f>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1527,8 +1598,15 @@
       <c r="C56">
         <v>35</v>
       </c>
+      <c r="D56">
+        <v>92500.22</v>
+      </c>
       <c r="E56">
         <v>92509.64</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1541,8 +1619,15 @@
       <c r="C57">
         <v>45</v>
       </c>
+      <c r="D57">
+        <v>105920.75</v>
+      </c>
       <c r="E57">
         <v>105923.26</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1555,8 +1640,15 @@
       <c r="C58">
         <v>55</v>
       </c>
+      <c r="D58">
+        <v>114090.65</v>
+      </c>
       <c r="E58">
         <v>114092.35</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1569,8 +1661,15 @@
       <c r="C59">
         <v>65</v>
       </c>
+      <c r="D59">
+        <v>118572.84</v>
+      </c>
       <c r="E59">
         <v>118578.54</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1583,8 +1682,15 @@
       <c r="C60">
         <v>75</v>
       </c>
+      <c r="D60">
+        <v>119371.11</v>
+      </c>
       <c r="E60">
         <v>119371.32</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1597,8 +1703,15 @@
       <c r="C61">
         <v>85</v>
       </c>
+      <c r="D61">
+        <v>113085.42</v>
+      </c>
       <c r="E61">
         <v>113089.86</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1617,7 +1730,7 @@
       <c r="E62">
         <v>103211.51</v>
       </c>
-      <c r="F62" t="str">
+      <c r="F62" s="2" t="str">
         <f>IF(D62&lt;E62,"non-pw","pw")</f>
         <v>pw</v>
       </c>
@@ -1653,8 +1766,15 @@
       <c r="C64">
         <v>15</v>
       </c>
+      <c r="D64">
+        <v>79591.63</v>
+      </c>
       <c r="E64">
         <v>79600.39</v>
+      </c>
+      <c r="F64" t="str">
+        <f>IF(D64&lt;E64,"non-pw","pw")</f>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -1667,8 +1787,15 @@
       <c r="C65">
         <v>25</v>
       </c>
+      <c r="D65">
+        <v>94945.75</v>
+      </c>
       <c r="E65">
         <v>94951.73</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" ref="F65:F71" si="2">IF(D65&lt;E65,"non-pw","pw")</f>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -1681,8 +1808,15 @@
       <c r="C66">
         <v>35</v>
       </c>
+      <c r="D66">
+        <v>103782.15</v>
+      </c>
       <c r="E66">
         <v>103783.64</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="2"/>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -1695,8 +1829,15 @@
       <c r="C67">
         <v>45</v>
       </c>
+      <c r="D67">
+        <v>108589.73</v>
+      </c>
       <c r="E67">
         <v>108590.33</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="2"/>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -1709,8 +1850,15 @@
       <c r="C68">
         <v>55</v>
       </c>
+      <c r="D68">
+        <v>110842.32</v>
+      </c>
       <c r="E68">
         <v>110844.55</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="2"/>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -1723,8 +1871,15 @@
       <c r="C69">
         <v>65</v>
       </c>
+      <c r="D69">
+        <v>114563.07</v>
+      </c>
       <c r="E69">
         <v>114653.3</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="2"/>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -1737,8 +1892,15 @@
       <c r="C70">
         <v>75</v>
       </c>
+      <c r="D70">
+        <v>119557.51</v>
+      </c>
       <c r="E70">
         <v>119555.38</v>
+      </c>
+      <c r="F70" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>pw</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -1751,8 +1913,15 @@
       <c r="C71">
         <v>85</v>
       </c>
+      <c r="D71">
+        <v>115629.33</v>
+      </c>
       <c r="E71">
         <v>115631.18</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="2"/>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -1807,8 +1976,15 @@
       <c r="C74">
         <v>15</v>
       </c>
+      <c r="D74">
+        <v>71083</v>
+      </c>
       <c r="E74">
         <v>71105.27</v>
+      </c>
+      <c r="F74" t="str">
+        <f>IF(D74&lt;E74,"non-pw","pw")</f>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -1821,8 +1997,15 @@
       <c r="C75">
         <v>25</v>
       </c>
+      <c r="D75">
+        <v>85262.65</v>
+      </c>
       <c r="E75">
         <v>85273.279999999999</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" ref="F75:F81" si="3">IF(D75&lt;E75,"non-pw","pw")</f>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -1835,8 +2018,15 @@
       <c r="C76">
         <v>35</v>
       </c>
+      <c r="D76">
+        <v>93750.86</v>
+      </c>
       <c r="E76">
         <v>93758.74</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="3"/>
+        <v>non-pw</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -1849,22 +2039,36 @@
       <c r="C77">
         <v>45</v>
       </c>
+      <c r="D77">
+        <v>99584.22</v>
+      </c>
       <c r="E77">
         <v>99587.36</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="F77" t="str">
+        <f t="shared" si="3"/>
+        <v>non-pw</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78">
+      <c r="B78" s="2">
+        <v>2</v>
+      </c>
+      <c r="C78" s="2">
         <v>55</v>
       </c>
-      <c r="E78">
+      <c r="D78" s="2">
+        <v>104878.05</v>
+      </c>
+      <c r="E78" s="2">
         <v>104877.87</v>
+      </c>
+      <c r="F78" s="2" t="str">
+        <f>IF(D78&lt;E78,"non-pw","pw")</f>
+        <v>pw</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -1877,8 +2081,15 @@
       <c r="C79">
         <v>65</v>
       </c>
+      <c r="D79">
+        <v>113196.93</v>
+      </c>
       <c r="E79">
         <v>113193.04</v>
+      </c>
+      <c r="F79" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>pw</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -1891,11 +2102,18 @@
       <c r="C80">
         <v>75</v>
       </c>
+      <c r="D80">
+        <v>122033.14</v>
+      </c>
       <c r="E80">
         <v>122039.2</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="str">
+        <f t="shared" si="3"/>
+        <v>non-pw</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -1905,8 +2123,15 @@
       <c r="C81">
         <v>85</v>
       </c>
+      <c r="D81">
+        <v>128520.22</v>
+      </c>
       <c r="E81">
         <v>128524.73</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="3"/>
+        <v>non-pw</v>
       </c>
     </row>
   </sheetData>
